--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25802635-7924-2C4B-A21E-05A1C2D9C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23644CEA-7246-0E4D-B12A-B838BF0F6DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="38400" windowHeight="30020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spielplan 2023" sheetId="5" r:id="rId1"/>
@@ -615,9 +615,6 @@
     <t>09:00</t>
   </si>
   <si>
-    <t>Spielplan - Eröffnungsspieltag 31. August 2025</t>
-  </si>
-  <si>
     <t>Basketball</t>
   </si>
   <si>
@@ -640,6 +637,9 @@
   </si>
   <si>
     <t>Schiri</t>
+  </si>
+  <si>
+    <t>Spielplan - Eröffnungsspieltag 30. August 2025</t>
   </si>
 </sst>
 </file>
@@ -1661,10 +1661,91 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1676,94 +1757,13 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2228,46 +2228,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="166"/>
+      <c r="A1" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="150"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
       <c r="AP1" s="6"/>
@@ -2319,44 +2319,44 @@
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="169"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="153"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
@@ -2408,62 +2408,62 @@
       <c r="CJ2" s="6"/>
     </row>
     <row r="3" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="150" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="143"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="143"/>
+      <c r="H3" s="175"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="142" t="s">
+      <c r="K3" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="143"/>
+      <c r="L3" s="175"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="143"/>
+      <c r="P3" s="175"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
-      <c r="S3" s="142" t="s">
-        <v>196</v>
-      </c>
-      <c r="T3" s="143"/>
+      <c r="S3" s="170" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="175"/>
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
-      <c r="W3" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="X3" s="143"/>
+      <c r="W3" s="170" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="175"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="51"/>
-      <c r="AA3" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB3" s="143"/>
+      <c r="AA3" s="170" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB3" s="175"/>
       <c r="AC3" s="51"/>
       <c r="AD3" s="51"/>
-      <c r="AE3" s="142" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF3" s="144"/>
+      <c r="AE3" s="170" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF3" s="171"/>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
-      <c r="AI3" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ3" s="144"/>
+      <c r="AI3" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ3" s="171"/>
       <c r="AK3" s="56"/>
       <c r="AL3" s="45"/>
       <c r="AN3" s="11"/>
@@ -2517,62 +2517,62 @@
       <c r="CJ3" s="11"/>
     </row>
     <row r="4" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="175" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="149"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="157"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="149"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="151" t="s">
+      <c r="K4" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="149"/>
+      <c r="L4" s="157"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="176" t="s">
+      <c r="O4" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="149"/>
+      <c r="P4" s="157"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="T4" s="149"/>
+      <c r="S4" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="T4" s="157"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="151" t="s">
+      <c r="W4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="149"/>
+      <c r="X4" s="157"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="151" t="s">
+      <c r="AA4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="149"/>
+      <c r="AB4" s="157"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="176" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF4" s="149"/>
+      <c r="AE4" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF4" s="157"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="176" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ4" s="149"/>
+      <c r="AI4" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ4" s="157"/>
       <c r="AK4" s="49"/>
       <c r="AL4" s="44"/>
       <c r="AN4" s="11"/>
@@ -2632,40 +2632,40 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="148"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="148"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="161"/>
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="154"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="169"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="154"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="169"/>
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="148"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="161"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="148"/>
+      <c r="AA5" s="162"/>
+      <c r="AB5" s="161"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="50"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="148"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="161"/>
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="148"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="161"/>
       <c r="AK5" s="47"/>
       <c r="AL5" s="48"/>
       <c r="AN5" s="11"/>
@@ -2725,44 +2725,44 @@
       <c r="B6" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="156"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="156"/>
-      <c r="AJ6" s="156"/>
-      <c r="AK6" s="156"/>
-      <c r="AL6" s="157"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="166"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
@@ -2820,44 +2820,44 @@
       <c r="B7" s="141" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="159"/>
-      <c r="AL7" s="160"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="144"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
@@ -3629,44 +3629,44 @@
       <c r="B14" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="162"/>
-      <c r="AL14" s="163"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="146"/>
+      <c r="AJ14" s="146"/>
+      <c r="AK14" s="146"/>
+      <c r="AL14" s="147"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
@@ -4315,48 +4315,48 @@
       <c r="CJ19" s="11"/>
     </row>
     <row r="20" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="161" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="163"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="146"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="146"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="146"/>
+      <c r="AJ20" s="146"/>
+      <c r="AK20" s="146"/>
+      <c r="AL20" s="147"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
@@ -4890,6 +4890,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="C6:AL6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C7:AL7"/>
     <mergeCell ref="C14:AL14"/>
     <mergeCell ref="C20:AL20"/>
@@ -4906,25 +4925,6 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="C6:AL6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:AL13 C15:AL19">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23644CEA-7246-0E4D-B12A-B838BF0F6DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F76FB6-4B02-1641-81AC-15B5B1F134B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spielplan 2023" sheetId="5" r:id="rId1"/>
-    <sheet name="Teams 2023" sheetId="6" r:id="rId2"/>
+    <sheet name="Spielplan 2025" sheetId="5" r:id="rId1"/>
+    <sheet name="Teams 2025" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1661,6 +1661,57 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,9 +1757,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1716,54 +1764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2195,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:CJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -2228,46 +2228,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="165" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="150"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="167"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
       <c r="AP1" s="6"/>
@@ -2319,44 +2319,44 @@
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="153"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="170"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
@@ -2408,62 +2408,62 @@
       <c r="CJ2" s="6"/>
     </row>
     <row r="3" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="175"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="175"/>
+      <c r="L3" s="148"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="175"/>
+      <c r="P3" s="148"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
-      <c r="S3" s="170" t="s">
+      <c r="S3" s="142" t="s">
         <v>195</v>
       </c>
-      <c r="T3" s="175"/>
+      <c r="T3" s="148"/>
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
-      <c r="W3" s="170" t="s">
+      <c r="W3" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="X3" s="175"/>
+      <c r="X3" s="148"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="51"/>
-      <c r="AA3" s="170" t="s">
+      <c r="AA3" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="AB3" s="175"/>
+      <c r="AB3" s="148"/>
       <c r="AC3" s="51"/>
       <c r="AD3" s="51"/>
-      <c r="AE3" s="170" t="s">
+      <c r="AE3" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="AF3" s="171"/>
+      <c r="AF3" s="143"/>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
-      <c r="AI3" s="170" t="s">
+      <c r="AI3" s="142" t="s">
         <v>199</v>
       </c>
-      <c r="AJ3" s="171"/>
+      <c r="AJ3" s="143"/>
       <c r="AK3" s="56"/>
       <c r="AL3" s="45"/>
       <c r="AN3" s="11"/>
@@ -2517,62 +2517,62 @@
       <c r="CJ3" s="11"/>
     </row>
     <row r="4" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="174" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="146" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="157"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="156" t="s">
+      <c r="K4" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="157"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="163" t="s">
+      <c r="O4" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="157"/>
+      <c r="P4" s="147"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="163" t="s">
+      <c r="S4" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="157"/>
+      <c r="T4" s="147"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="156" t="s">
+      <c r="W4" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="157"/>
+      <c r="X4" s="147"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="156" t="s">
+      <c r="AA4" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="157"/>
+      <c r="AB4" s="147"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="163" t="s">
+      <c r="AE4" s="150" t="s">
         <v>198</v>
       </c>
-      <c r="AF4" s="157"/>
+      <c r="AF4" s="147"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="163" t="s">
+      <c r="AI4" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="AJ4" s="157"/>
+      <c r="AJ4" s="147"/>
       <c r="AK4" s="49"/>
       <c r="AL4" s="44"/>
       <c r="AN4" s="11"/>
@@ -2632,40 +2632,40 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="161"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="155"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="161"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="155"/>
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="169"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="158"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="169"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="158"/>
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="161"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="155"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="161"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="155"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="50"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="161"/>
+      <c r="AE5" s="156"/>
+      <c r="AF5" s="155"/>
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="161"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="155"/>
       <c r="AK5" s="47"/>
       <c r="AL5" s="48"/>
       <c r="AN5" s="11"/>
@@ -2725,44 +2725,44 @@
       <c r="B6" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="166"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="152"/>
+      <c r="AL6" s="153"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
@@ -2820,44 +2820,44 @@
       <c r="B7" s="141" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="143"/>
-      <c r="AK7" s="143"/>
-      <c r="AL7" s="144"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="160"/>
+      <c r="AI7" s="160"/>
+      <c r="AJ7" s="160"/>
+      <c r="AK7" s="160"/>
+      <c r="AL7" s="161"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
@@ -3629,44 +3629,44 @@
       <c r="B14" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="146"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="146"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="146"/>
-      <c r="AJ14" s="146"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="147"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="163"/>
+      <c r="AC14" s="163"/>
+      <c r="AD14" s="163"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="163"/>
+      <c r="AG14" s="163"/>
+      <c r="AH14" s="163"/>
+      <c r="AI14" s="163"/>
+      <c r="AJ14" s="163"/>
+      <c r="AK14" s="163"/>
+      <c r="AL14" s="164"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
@@ -4315,48 +4315,48 @@
       <c r="CJ19" s="11"/>
     </row>
     <row r="20" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="145" t="s">
+      <c r="B20" s="175"/>
+      <c r="C20" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="146"/>
-      <c r="Z20" s="146"/>
-      <c r="AA20" s="146"/>
-      <c r="AB20" s="146"/>
-      <c r="AC20" s="146"/>
-      <c r="AD20" s="146"/>
-      <c r="AE20" s="146"/>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="146"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="146"/>
-      <c r="AK20" s="146"/>
-      <c r="AL20" s="147"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="163"/>
+      <c r="Y20" s="163"/>
+      <c r="Z20" s="163"/>
+      <c r="AA20" s="163"/>
+      <c r="AB20" s="163"/>
+      <c r="AC20" s="163"/>
+      <c r="AD20" s="163"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="163"/>
+      <c r="AG20" s="163"/>
+      <c r="AH20" s="163"/>
+      <c r="AI20" s="163"/>
+      <c r="AJ20" s="163"/>
+      <c r="AK20" s="163"/>
+      <c r="AL20" s="164"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
@@ -4890,25 +4890,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="C6:AL6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C7:AL7"/>
     <mergeCell ref="C14:AL14"/>
     <mergeCell ref="C20:AL20"/>
@@ -4925,6 +4906,25 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="C6:AL6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:AL13 C15:AL19">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F76FB6-4B02-1641-81AC-15B5B1F134B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B825F22-311B-5642-840E-A0C8A23EDB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spielplan 2025" sheetId="5" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h/mm&quot; h&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -752,6 +752,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1244,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1661,6 +1668,90 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,94 +1767,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2195,8 +2208,8 @@
   </sheetPr>
   <dimension ref="A1:CJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2228,46 +2241,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="167"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="150"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
       <c r="AP1" s="6"/>
@@ -2319,44 +2332,44 @@
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="169"/>
-      <c r="AL2" s="170"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="153"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
@@ -2408,62 +2421,62 @@
       <c r="CJ2" s="6"/>
     </row>
     <row r="3" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="149" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="148"/>
+      <c r="H3" s="175"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="142" t="s">
+      <c r="K3" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="148"/>
+      <c r="L3" s="175"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="148"/>
+      <c r="P3" s="175"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
-      <c r="S3" s="142" t="s">
+      <c r="S3" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="T3" s="148"/>
+      <c r="T3" s="175"/>
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
-      <c r="W3" s="142" t="s">
+      <c r="W3" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="X3" s="148"/>
+      <c r="X3" s="175"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="51"/>
-      <c r="AA3" s="142" t="s">
+      <c r="AA3" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="AB3" s="148"/>
+      <c r="AB3" s="175"/>
       <c r="AC3" s="51"/>
       <c r="AD3" s="51"/>
-      <c r="AE3" s="142" t="s">
+      <c r="AE3" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="AF3" s="143"/>
+      <c r="AF3" s="171"/>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
-      <c r="AI3" s="142" t="s">
+      <c r="AI3" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="AJ3" s="143"/>
+      <c r="AJ3" s="171"/>
       <c r="AK3" s="56"/>
       <c r="AL3" s="45"/>
       <c r="AN3" s="11"/>
@@ -2517,62 +2530,62 @@
       <c r="CJ3" s="11"/>
     </row>
     <row r="4" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="146" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="174" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="147"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="173" t="s">
+      <c r="G4" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="147"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="173" t="s">
+      <c r="K4" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="147"/>
+      <c r="L4" s="157"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="150" t="s">
+      <c r="O4" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="147"/>
+      <c r="P4" s="157"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="147"/>
+      <c r="T4" s="157"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="173" t="s">
+      <c r="W4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="147"/>
+      <c r="X4" s="157"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="173" t="s">
+      <c r="AA4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="147"/>
+      <c r="AB4" s="157"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="150" t="s">
+      <c r="AE4" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="AF4" s="147"/>
+      <c r="AF4" s="157"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="150" t="s">
+      <c r="AI4" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="AJ4" s="147"/>
+      <c r="AJ4" s="157"/>
       <c r="AK4" s="49"/>
       <c r="AL4" s="44"/>
       <c r="AN4" s="11"/>
@@ -2632,40 +2645,40 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="155"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="155"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="155"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="161"/>
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="158"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="169"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="158"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="169"/>
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="155"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="161"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="155"/>
+      <c r="AA5" s="162"/>
+      <c r="AB5" s="161"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="50"/>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="155"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="161"/>
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="155"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="161"/>
       <c r="AK5" s="47"/>
       <c r="AL5" s="48"/>
       <c r="AN5" s="11"/>
@@ -2725,44 +2738,44 @@
       <c r="B6" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="153"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="166"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
@@ -2820,44 +2833,44 @@
       <c r="B7" s="141" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="160"/>
-      <c r="AJ7" s="160"/>
-      <c r="AK7" s="160"/>
-      <c r="AL7" s="161"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="144"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
@@ -2925,8 +2938,12 @@
       <c r="H8" s="63">
         <v>10</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="I8" s="134">
+        <v>3</v>
+      </c>
+      <c r="J8" s="135">
+        <v>0</v>
+      </c>
       <c r="K8" s="35"/>
       <c r="L8" s="105"/>
       <c r="M8" s="106"/>
@@ -2937,8 +2954,12 @@
       <c r="P8" s="65">
         <v>14</v>
       </c>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="135"/>
+      <c r="Q8" s="134">
+        <v>0</v>
+      </c>
+      <c r="R8" s="135">
+        <v>3</v>
+      </c>
       <c r="S8" s="66">
         <v>13</v>
       </c>
@@ -2953,8 +2974,12 @@
       <c r="X8" s="69">
         <v>7</v>
       </c>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="135"/>
+      <c r="Y8" s="134">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="135">
+        <v>3</v>
+      </c>
       <c r="AA8" s="70">
         <v>11</v>
       </c>
@@ -2969,8 +2994,12 @@
       <c r="AF8" s="73">
         <v>15</v>
       </c>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="135"/>
+      <c r="AG8" s="134">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="135">
+        <v>0</v>
+      </c>
       <c r="AI8" s="74">
         <v>1</v>
       </c>
@@ -3042,24 +3071,36 @@
       <c r="D9" s="25">
         <v>14</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
+      <c r="E9" s="110">
+        <v>0</v>
+      </c>
+      <c r="F9" s="111">
+        <v>3</v>
+      </c>
       <c r="G9" s="57">
         <v>4</v>
       </c>
       <c r="H9" s="39">
         <v>15</v>
       </c>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
+      <c r="I9" s="116">
+        <v>0</v>
+      </c>
+      <c r="J9" s="117">
+        <v>3</v>
+      </c>
       <c r="K9" s="22">
         <v>1</v>
       </c>
       <c r="L9" s="18">
         <v>13</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
+      <c r="M9" s="110">
+        <v>3</v>
+      </c>
+      <c r="N9" s="111">
+        <v>0</v>
+      </c>
       <c r="O9" s="35"/>
       <c r="P9" s="55"/>
       <c r="Q9" s="52"/>
@@ -3078,8 +3119,12 @@
       <c r="X9" s="30">
         <v>11</v>
       </c>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="113"/>
+      <c r="Y9" s="177">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="178">
+        <v>3</v>
+      </c>
       <c r="AA9" s="40">
         <v>12</v>
       </c>
@@ -3094,8 +3139,12 @@
       <c r="AF9" s="23">
         <v>10</v>
       </c>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="111"/>
+      <c r="AG9" s="110">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="111">
+        <v>3</v>
+      </c>
       <c r="AI9" s="104"/>
       <c r="AJ9" s="55"/>
       <c r="AK9" s="110"/>
@@ -3163,32 +3212,48 @@
       <c r="D10" s="41">
         <v>8</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
+      <c r="E10" s="110">
+        <v>0</v>
+      </c>
+      <c r="F10" s="111">
+        <v>3</v>
+      </c>
       <c r="G10" s="22">
         <v>1</v>
       </c>
       <c r="H10" s="16">
         <v>16</v>
       </c>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
+      <c r="I10" s="177">
+        <v>3</v>
+      </c>
+      <c r="J10" s="178">
+        <v>0</v>
+      </c>
       <c r="K10" s="107">
         <v>6</v>
       </c>
       <c r="L10" s="27">
         <v>15</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="111"/>
+      <c r="M10" s="110">
+        <v>0</v>
+      </c>
+      <c r="N10" s="111">
+        <v>3</v>
+      </c>
       <c r="O10" s="24">
         <v>4</v>
       </c>
       <c r="P10" s="18">
         <v>13</v>
       </c>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="111"/>
+      <c r="Q10" s="110">
+        <v>0</v>
+      </c>
+      <c r="R10" s="111">
+        <v>3</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="55"/>
       <c r="U10" s="52"/>
@@ -3207,8 +3272,12 @@
       <c r="AF10" s="38">
         <v>3</v>
       </c>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="111"/>
+      <c r="AG10" s="110">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="111">
+        <v>0</v>
+      </c>
       <c r="AI10" s="34">
         <v>5</v>
       </c>
@@ -3629,44 +3698,44 @@
       <c r="B14" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="162" t="s">
+      <c r="C14" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="163"/>
-      <c r="Z14" s="163"/>
-      <c r="AA14" s="163"/>
-      <c r="AB14" s="163"/>
-      <c r="AC14" s="163"/>
-      <c r="AD14" s="163"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="163"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="163"/>
-      <c r="AK14" s="163"/>
-      <c r="AL14" s="164"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="146"/>
+      <c r="AJ14" s="146"/>
+      <c r="AK14" s="146"/>
+      <c r="AL14" s="147"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
@@ -4315,48 +4384,48 @@
       <c r="CJ19" s="11"/>
     </row>
     <row r="20" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="175"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="163"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="163"/>
-      <c r="AF20" s="163"/>
-      <c r="AG20" s="163"/>
-      <c r="AH20" s="163"/>
-      <c r="AI20" s="163"/>
-      <c r="AJ20" s="163"/>
-      <c r="AK20" s="163"/>
-      <c r="AL20" s="164"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="146"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="146"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="146"/>
+      <c r="AJ20" s="146"/>
+      <c r="AK20" s="146"/>
+      <c r="AL20" s="147"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
@@ -4890,6 +4959,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="C6:AL6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C7:AL7"/>
     <mergeCell ref="C14:AL14"/>
     <mergeCell ref="C20:AL20"/>
@@ -4906,25 +4994,6 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="C6:AL6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:AL13 C15:AL19">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B825F22-311B-5642-840E-A0C8A23EDB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0676D8-6DE2-8F46-B300-2F0A090F5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2209,7 +2209,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2966,8 +2966,12 @@
       <c r="T8" s="67">
         <v>5</v>
       </c>
-      <c r="U8" s="134"/>
-      <c r="V8" s="135"/>
+      <c r="U8" s="134">
+        <v>0</v>
+      </c>
+      <c r="V8" s="135">
+        <v>3</v>
+      </c>
       <c r="W8" s="68">
         <v>6</v>
       </c>
@@ -2986,8 +2990,12 @@
       <c r="AB8" s="71">
         <v>3</v>
       </c>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="135"/>
+      <c r="AC8" s="134">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="135">
+        <v>0</v>
+      </c>
       <c r="AE8" s="72">
         <v>8</v>
       </c>
@@ -3111,8 +3119,12 @@
       <c r="T9" s="16">
         <v>16</v>
       </c>
-      <c r="U9" s="112"/>
-      <c r="V9" s="113"/>
+      <c r="U9" s="177">
+        <v>0</v>
+      </c>
+      <c r="V9" s="178">
+        <v>3</v>
+      </c>
       <c r="W9" s="28">
         <v>8</v>
       </c>
@@ -3131,8 +3143,12 @@
       <c r="AB9" s="31">
         <v>6</v>
       </c>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="113"/>
+      <c r="AC9" s="177">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="178">
+        <v>3</v>
+      </c>
       <c r="AE9" s="33">
         <v>7</v>
       </c>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0676D8-6DE2-8F46-B300-2F0A090F5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC50E2-4CAF-5344-83F1-C2454A1B1862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1404,9 +1404,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,9 +1557,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,18 +1578,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,41 +1602,17 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,6 +1736,51 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2209,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2241,46 +2244,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="150"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="136"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
       <c r="AP1" s="6"/>
@@ -2332,44 +2335,44 @@
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="153"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="139"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
@@ -2421,63 +2424,63 @@
       <c r="CJ2" s="6"/>
     </row>
     <row r="3" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="175"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="175"/>
+      <c r="L3" s="161"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="175"/>
+      <c r="P3" s="161"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
-      <c r="S3" s="170" t="s">
+      <c r="S3" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="T3" s="175"/>
+      <c r="T3" s="161"/>
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
-      <c r="W3" s="170" t="s">
+      <c r="W3" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="X3" s="175"/>
+      <c r="X3" s="161"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="51"/>
-      <c r="AA3" s="170" t="s">
+      <c r="AA3" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="AB3" s="175"/>
+      <c r="AB3" s="161"/>
       <c r="AC3" s="51"/>
       <c r="AD3" s="51"/>
-      <c r="AE3" s="170" t="s">
+      <c r="AE3" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="AF3" s="171"/>
+      <c r="AF3" s="157"/>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
-      <c r="AI3" s="170" t="s">
+      <c r="AI3" s="156" t="s">
         <v>199</v>
       </c>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="56"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="55"/>
       <c r="AL3" s="45"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="11"/>
@@ -2530,62 +2533,62 @@
       <c r="CJ3" s="11"/>
     </row>
     <row r="4" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="174" t="s">
+      <c r="B4" s="141"/>
+      <c r="C4" s="160" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="157"/>
+      <c r="H4" s="143"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="156" t="s">
+      <c r="K4" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="157"/>
+      <c r="L4" s="143"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="163" t="s">
+      <c r="O4" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="157"/>
+      <c r="P4" s="143"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="163" t="s">
+      <c r="S4" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="157"/>
+      <c r="T4" s="143"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="156" t="s">
+      <c r="W4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="157"/>
+      <c r="X4" s="143"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="156" t="s">
+      <c r="AA4" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="157"/>
+      <c r="AB4" s="143"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="163" t="s">
+      <c r="AE4" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="AF4" s="157"/>
+      <c r="AF4" s="143"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="163" t="s">
+      <c r="AI4" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="AJ4" s="157"/>
+      <c r="AJ4" s="143"/>
       <c r="AK4" s="49"/>
       <c r="AL4" s="44"/>
       <c r="AN4" s="11"/>
@@ -2645,40 +2648,40 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="161"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="161"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="147"/>
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="169"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="155"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="169"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="155"/>
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="161"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="147"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="161"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="147"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="50"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="161"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="147"/>
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="161"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="147"/>
       <c r="AK5" s="47"/>
       <c r="AL5" s="48"/>
       <c r="AN5" s="11"/>
@@ -2732,50 +2735,50 @@
       <c r="CJ5" s="11"/>
     </row>
     <row r="6" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="166"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="151"/>
+      <c r="X6" s="151"/>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="151"/>
+      <c r="AB6" s="151"/>
+      <c r="AC6" s="151"/>
+      <c r="AD6" s="151"/>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="151"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="151"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="151"/>
+      <c r="AK6" s="151"/>
+      <c r="AL6" s="152"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
@@ -2827,50 +2830,50 @@
       <c r="CJ6" s="11"/>
     </row>
     <row r="7" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="143"/>
-      <c r="AK7" s="143"/>
-      <c r="AL7" s="144"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="130"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
@@ -2922,100 +2925,100 @@
       <c r="CJ7" s="11"/>
     </row>
     <row r="8" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="62">
+      <c r="C8" s="103"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="61">
         <v>9</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="62">
         <v>10</v>
       </c>
-      <c r="I8" s="134">
+      <c r="I8" s="165">
         <v>3</v>
       </c>
-      <c r="J8" s="135">
+      <c r="J8" s="166">
         <v>0</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="64">
+      <c r="L8" s="104"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="63">
         <v>16</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="64">
         <v>14</v>
       </c>
-      <c r="Q8" s="134">
+      <c r="Q8" s="165">
         <v>0</v>
       </c>
-      <c r="R8" s="135">
+      <c r="R8" s="166">
         <v>3</v>
       </c>
-      <c r="S8" s="66">
+      <c r="S8" s="65">
         <v>13</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="66">
         <v>5</v>
       </c>
-      <c r="U8" s="134">
+      <c r="U8" s="165">
         <v>0</v>
       </c>
-      <c r="V8" s="135">
+      <c r="V8" s="166">
         <v>3</v>
       </c>
-      <c r="W8" s="68">
+      <c r="W8" s="67">
         <v>6</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="68">
         <v>7</v>
       </c>
-      <c r="Y8" s="134">
+      <c r="Y8" s="165">
         <v>0</v>
       </c>
-      <c r="Z8" s="135">
+      <c r="Z8" s="166">
         <v>3</v>
       </c>
-      <c r="AA8" s="70">
+      <c r="AA8" s="69">
         <v>11</v>
       </c>
-      <c r="AB8" s="71">
+      <c r="AB8" s="70">
         <v>3</v>
       </c>
-      <c r="AC8" s="134">
+      <c r="AC8" s="165">
         <v>3</v>
       </c>
-      <c r="AD8" s="135">
+      <c r="AD8" s="166">
         <v>0</v>
       </c>
-      <c r="AE8" s="72">
+      <c r="AE8" s="71">
         <v>8</v>
       </c>
-      <c r="AF8" s="73">
+      <c r="AF8" s="72">
         <v>15</v>
       </c>
-      <c r="AG8" s="134">
+      <c r="AG8" s="165">
         <v>3</v>
       </c>
-      <c r="AH8" s="135">
+      <c r="AH8" s="166">
         <v>0</v>
       </c>
-      <c r="AI8" s="74">
+      <c r="AI8" s="73">
         <v>1</v>
       </c>
-      <c r="AJ8" s="75">
+      <c r="AJ8" s="74">
         <v>2</v>
       </c>
-      <c r="AK8" s="134"/>
-      <c r="AL8" s="135"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="123"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
       <c r="AP8" s="11"/>
@@ -3067,10 +3070,10 @@
       <c r="CJ8" s="11"/>
     </row>
     <row r="9" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="113" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="19">
@@ -3079,22 +3082,22 @@
       <c r="D9" s="25">
         <v>14</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="163">
         <v>0</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="164">
         <v>3</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="56">
         <v>4</v>
       </c>
       <c r="H9" s="39">
         <v>15</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="167">
         <v>0</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="168">
         <v>3</v>
       </c>
       <c r="K9" s="22">
@@ -3103,26 +3106,26 @@
       <c r="L9" s="18">
         <v>13</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="163">
         <v>3</v>
       </c>
-      <c r="N9" s="111">
+      <c r="N9" s="164">
         <v>0</v>
       </c>
       <c r="O9" s="35"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
       <c r="S9" s="15">
         <v>3</v>
       </c>
       <c r="T9" s="16">
         <v>16</v>
       </c>
-      <c r="U9" s="177">
+      <c r="U9" s="163">
         <v>0</v>
       </c>
-      <c r="V9" s="178">
+      <c r="V9" s="164">
         <v>3</v>
       </c>
       <c r="W9" s="28">
@@ -3131,10 +3134,10 @@
       <c r="X9" s="30">
         <v>11</v>
       </c>
-      <c r="Y9" s="177">
+      <c r="Y9" s="163">
         <v>0</v>
       </c>
-      <c r="Z9" s="178">
+      <c r="Z9" s="164">
         <v>3</v>
       </c>
       <c r="AA9" s="40">
@@ -3143,10 +3146,10 @@
       <c r="AB9" s="31">
         <v>6</v>
       </c>
-      <c r="AC9" s="177">
+      <c r="AC9" s="163">
         <v>0</v>
       </c>
-      <c r="AD9" s="178">
+      <c r="AD9" s="164">
         <v>3</v>
       </c>
       <c r="AE9" s="33">
@@ -3155,16 +3158,16 @@
       <c r="AF9" s="23">
         <v>10</v>
       </c>
-      <c r="AG9" s="110">
+      <c r="AG9" s="163">
         <v>0</v>
       </c>
-      <c r="AH9" s="111">
+      <c r="AH9" s="164">
         <v>3</v>
       </c>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="111"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="109"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="11"/>
@@ -3216,10 +3219,10 @@
       <c r="CJ9" s="11"/>
     </row>
     <row r="10" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="113" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="40">
@@ -3228,10 +3231,10 @@
       <c r="D10" s="41">
         <v>8</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="163">
         <v>0</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="164">
         <v>3</v>
       </c>
       <c r="G10" s="22">
@@ -3240,22 +3243,22 @@
       <c r="H10" s="16">
         <v>16</v>
       </c>
-      <c r="I10" s="177">
+      <c r="I10" s="163">
         <v>3</v>
       </c>
-      <c r="J10" s="178">
+      <c r="J10" s="164">
         <v>0</v>
       </c>
-      <c r="K10" s="107">
+      <c r="K10" s="105">
         <v>6</v>
       </c>
       <c r="L10" s="27">
         <v>15</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="163">
         <v>0</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="164">
         <v>3</v>
       </c>
       <c r="O10" s="24">
@@ -3264,34 +3267,34 @@
       <c r="P10" s="18">
         <v>13</v>
       </c>
-      <c r="Q10" s="110">
+      <c r="Q10" s="163">
         <v>0</v>
       </c>
-      <c r="R10" s="111">
+      <c r="R10" s="164">
         <v>3</v>
       </c>
       <c r="S10" s="35"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
       <c r="W10" s="35"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
       <c r="AA10" s="35"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="169"/>
+      <c r="AD10" s="169"/>
       <c r="AE10" s="20">
         <v>9</v>
       </c>
       <c r="AF10" s="38">
         <v>3</v>
       </c>
-      <c r="AG10" s="110">
+      <c r="AG10" s="163">
         <v>3</v>
       </c>
-      <c r="AH10" s="111">
+      <c r="AH10" s="164">
         <v>0</v>
       </c>
       <c r="AI10" s="34">
@@ -3300,8 +3303,8 @@
       <c r="AJ10" s="25">
         <v>14</v>
       </c>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="111"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="109"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
@@ -3353,68 +3356,92 @@
       <c r="CJ10" s="11"/>
     </row>
     <row r="11" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="113" t="s">
         <v>183</v>
       </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
       <c r="K11" s="15">
         <v>3</v>
       </c>
       <c r="L11" s="23">
         <v>10</v>
       </c>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="107">
+      <c r="M11" s="163">
+        <v>0</v>
+      </c>
+      <c r="N11" s="164">
+        <v>3</v>
+      </c>
+      <c r="O11" s="105">
         <v>6</v>
       </c>
       <c r="P11" s="42">
         <v>12</v>
       </c>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="117"/>
+      <c r="Q11" s="167">
+        <v>3</v>
+      </c>
+      <c r="R11" s="168">
+        <v>0</v>
+      </c>
       <c r="S11" s="33">
         <v>7</v>
       </c>
       <c r="T11" s="41">
         <v>8</v>
       </c>
-      <c r="U11" s="110"/>
-      <c r="V11" s="111"/>
+      <c r="U11" s="163">
+        <v>3</v>
+      </c>
+      <c r="V11" s="164">
+        <v>0</v>
+      </c>
       <c r="W11" s="20">
         <v>9</v>
       </c>
       <c r="X11" s="16">
         <v>16</v>
       </c>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="113"/>
+      <c r="Y11" s="163">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="164">
+        <v>0</v>
+      </c>
       <c r="AA11" s="22">
         <v>1</v>
       </c>
       <c r="AB11" s="18">
         <v>13</v>
       </c>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="111"/>
+      <c r="AC11" s="163">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="164">
+        <v>3</v>
+      </c>
       <c r="AE11" s="17">
         <v>2</v>
       </c>
       <c r="AF11" s="30">
         <v>11</v>
       </c>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="113"/>
+      <c r="AG11" s="163">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="164">
+        <v>3</v>
+      </c>
       <c r="AI11" s="24">
         <v>4</v>
       </c>
@@ -3422,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="AK11" s="52"/>
-      <c r="AL11" s="55"/>
+      <c r="AL11" s="54"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
       <c r="AP11" s="11"/>
@@ -3474,10 +3501,10 @@
       <c r="CJ11" s="11"/>
     </row>
     <row r="12" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="113" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="17">
@@ -3486,60 +3513,60 @@
       <c r="D12" s="29">
         <v>9</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="164"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
       <c r="O12" s="28">
         <v>8</v>
       </c>
       <c r="P12" s="30">
         <v>11</v>
       </c>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="113"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="164"/>
       <c r="S12" s="37">
         <v>1</v>
       </c>
       <c r="T12" s="25">
         <v>14</v>
       </c>
-      <c r="U12" s="110"/>
-      <c r="V12" s="111"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="164"/>
       <c r="W12" s="35"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
       <c r="AA12" s="33">
         <v>7</v>
       </c>
       <c r="AB12" s="16">
         <v>16</v>
       </c>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="113"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="164"/>
       <c r="AE12" s="19">
         <v>5</v>
       </c>
       <c r="AF12" s="18">
         <v>13</v>
       </c>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="111"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="164"/>
       <c r="AI12" s="26">
         <v>6</v>
       </c>
       <c r="AJ12" s="23">
         <v>10</v>
       </c>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="111"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="109"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
@@ -3591,72 +3618,72 @@
       <c r="CJ12" s="11"/>
     </row>
     <row r="13" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="117" t="s">
         <v>185</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="76">
+      <c r="D13" s="54"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="75">
         <v>7</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>11</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
       <c r="O13" s="35"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="78">
+      <c r="P13" s="54"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="77">
         <v>2</v>
       </c>
-      <c r="T13" s="79">
+      <c r="T13" s="78">
         <v>15</v>
       </c>
-      <c r="U13" s="128"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="109">
+      <c r="U13" s="170"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="107">
         <v>4</v>
       </c>
-      <c r="X13" s="80">
+      <c r="X13" s="79">
         <v>13</v>
       </c>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="81">
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="80">
         <v>5</v>
       </c>
-      <c r="AB13" s="82">
+      <c r="AB13" s="81">
         <v>10</v>
       </c>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="83">
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="82">
         <v>6</v>
       </c>
-      <c r="AF13" s="84">
+      <c r="AF13" s="83">
         <v>12</v>
       </c>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="85">
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="171"/>
+      <c r="AI13" s="84">
         <v>3</v>
       </c>
-      <c r="AJ13" s="86">
+      <c r="AJ13" s="85">
         <v>9</v>
       </c>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="129"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="121"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
@@ -3708,50 +3735,50 @@
       <c r="CJ13" s="11"/>
     </row>
     <row r="14" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="146"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="146"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="146"/>
-      <c r="AJ14" s="146"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="147"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="132"/>
+      <c r="AF14" s="132"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="132"/>
+      <c r="AJ14" s="132"/>
+      <c r="AK14" s="132"/>
+      <c r="AL14" s="133"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
@@ -3803,76 +3830,76 @@
       <c r="CJ14" s="11"/>
     </row>
     <row r="15" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="89">
         <v>3</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="90">
         <v>16</v>
       </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="92">
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="91">
         <v>2</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="92">
         <v>13</v>
       </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="94">
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="93">
         <v>5</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="68">
         <v>7</v>
       </c>
-      <c r="M15" s="134"/>
-      <c r="N15" s="135"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="166"/>
       <c r="O15" s="35"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="62">
+      <c r="P15" s="54"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="61">
         <v>9</v>
       </c>
-      <c r="T15" s="95">
+      <c r="T15" s="94">
         <v>12</v>
       </c>
-      <c r="U15" s="134"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="74">
+      <c r="U15" s="165"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="73">
         <v>1</v>
       </c>
-      <c r="X15" s="63">
+      <c r="X15" s="62">
         <v>10</v>
       </c>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="96">
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="169"/>
+      <c r="AD15" s="169"/>
+      <c r="AE15" s="95">
         <v>4</v>
       </c>
-      <c r="AF15" s="65">
+      <c r="AF15" s="64">
         <v>14</v>
       </c>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="72">
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="166"/>
+      <c r="AI15" s="71">
         <v>8</v>
       </c>
-      <c r="AJ15" s="97">
+      <c r="AJ15" s="96">
         <v>11</v>
       </c>
       <c r="AK15" s="52"/>
-      <c r="AL15" s="55"/>
+      <c r="AL15" s="54"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
@@ -3924,10 +3951,10 @@
       <c r="CJ15" s="11"/>
     </row>
     <row r="16" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="113" t="s">
         <v>187</v>
       </c>
       <c r="C16" s="26">
@@ -3936,60 +3963,60 @@
       <c r="D16" s="18">
         <v>13</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
       <c r="K16" s="28">
         <v>8</v>
       </c>
       <c r="L16" s="25">
         <v>14</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="111"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="164"/>
       <c r="O16" s="17">
         <v>2</v>
       </c>
       <c r="P16" s="29">
         <v>9</v>
       </c>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="111"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="164"/>
       <c r="S16" s="35"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="169"/>
       <c r="W16" s="35"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="169"/>
+      <c r="Z16" s="169"/>
       <c r="AA16" s="24">
         <v>4</v>
       </c>
       <c r="AB16" s="27">
         <v>15</v>
       </c>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="111"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="164"/>
       <c r="AE16" s="37">
         <v>1</v>
       </c>
       <c r="AF16" s="16">
         <v>16</v>
       </c>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="108">
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="106">
         <v>7</v>
       </c>
       <c r="AJ16" s="21">
         <v>12</v>
       </c>
-      <c r="AK16" s="112"/>
-      <c r="AL16" s="113"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="111"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="11"/>
@@ -4041,76 +4068,76 @@
       <c r="CJ16" s="11"/>
     </row>
     <row r="17" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="56">
         <v>4</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>10</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="176"/>
       <c r="G17" s="19">
         <v>5</v>
       </c>
       <c r="H17" s="31">
         <v>6</v>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
       <c r="K17" s="32">
         <v>11</v>
       </c>
       <c r="L17" s="21">
         <v>12</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="164"/>
       <c r="O17" s="33">
         <v>7</v>
       </c>
       <c r="P17" s="27">
         <v>15</v>
       </c>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
       <c r="S17" s="35"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="169"/>
       <c r="W17" s="15">
         <v>3</v>
       </c>
       <c r="X17" s="25">
         <v>14</v>
       </c>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="111"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="164"/>
       <c r="AA17" s="17">
         <v>2</v>
       </c>
       <c r="AB17" s="41">
         <v>8</v>
       </c>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="111"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="164"/>
       <c r="AE17" s="35"/>
       <c r="AF17" s="36"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="60">
+      <c r="AG17" s="179"/>
+      <c r="AH17" s="179"/>
+      <c r="AI17" s="59">
         <v>13</v>
       </c>
-      <c r="AJ17" s="61">
+      <c r="AJ17" s="60">
         <v>16</v>
       </c>
       <c r="AK17" s="52"/>
-      <c r="AL17" s="55"/>
+      <c r="AL17" s="54"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
       <c r="AP17" s="11"/>
@@ -4162,72 +4189,72 @@
       <c r="CJ17" s="11"/>
     </row>
     <row r="18" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="113" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="58">
         <v>15</v>
       </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="176"/>
       <c r="G18" s="15">
         <v>3</v>
       </c>
       <c r="H18" s="25">
         <v>14</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="24">
         <v>4</v>
       </c>
       <c r="L18" s="29">
         <v>9</v>
       </c>
-      <c r="M18" s="110"/>
-      <c r="N18" s="111"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="164"/>
       <c r="O18" s="34">
         <v>5</v>
       </c>
       <c r="P18" s="23">
         <v>10</v>
       </c>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="111"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="164"/>
       <c r="S18" s="26">
         <v>6</v>
       </c>
       <c r="T18" s="30">
         <v>11</v>
       </c>
-      <c r="U18" s="112"/>
-      <c r="V18" s="113"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="164"/>
       <c r="W18" s="17">
         <v>2</v>
       </c>
       <c r="X18" s="21">
         <v>12</v>
       </c>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="111"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="164"/>
       <c r="AA18" s="35"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="169"/>
       <c r="AE18" s="35"/>
       <c r="AF18" s="36"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
+      <c r="AG18" s="179"/>
+      <c r="AH18" s="179"/>
       <c r="AI18" s="35"/>
       <c r="AJ18" s="36"/>
-      <c r="AK18" s="112"/>
-      <c r="AL18" s="113"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="111"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
@@ -4279,76 +4306,76 @@
       <c r="CJ18" s="11"/>
     </row>
     <row r="19" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="75">
         <v>7</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="97">
         <v>11</v>
       </c>
-      <c r="E19" s="136"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="87">
+      <c r="E19" s="177"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="86">
         <v>8</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="83">
         <v>12</v>
       </c>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="78">
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="77">
         <v>2</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="87">
         <v>16</v>
       </c>
-      <c r="M19" s="126"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="99">
+      <c r="M19" s="170"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="98">
         <v>1</v>
       </c>
-      <c r="P19" s="100">
+      <c r="P19" s="99">
         <v>3</v>
       </c>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="101">
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="100">
         <v>4</v>
       </c>
-      <c r="T19" s="102">
+      <c r="T19" s="101">
         <v>10</v>
       </c>
-      <c r="U19" s="128"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="81">
+      <c r="U19" s="170"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="80">
         <v>5</v>
       </c>
-      <c r="X19" s="79">
+      <c r="X19" s="78">
         <v>15</v>
       </c>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="103">
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="171"/>
+      <c r="AA19" s="102">
         <v>9</v>
       </c>
-      <c r="AB19" s="89">
+      <c r="AB19" s="88">
         <v>14</v>
       </c>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="129"/>
+      <c r="AC19" s="170"/>
+      <c r="AD19" s="171"/>
       <c r="AE19" s="35"/>
       <c r="AF19" s="36"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
+      <c r="AG19" s="179"/>
+      <c r="AH19" s="179"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="36"/>
-      <c r="AK19" s="128"/>
-      <c r="AL19" s="129"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="121"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
       <c r="AP19" s="11"/>
@@ -4400,48 +4427,48 @@
       <c r="CJ19" s="11"/>
     </row>
     <row r="20" spans="1:88" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="145" t="s">
+      <c r="B20" s="145"/>
+      <c r="C20" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="146"/>
-      <c r="Z20" s="146"/>
-      <c r="AA20" s="146"/>
-      <c r="AB20" s="146"/>
-      <c r="AC20" s="146"/>
-      <c r="AD20" s="146"/>
-      <c r="AE20" s="146"/>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="146"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="146"/>
-      <c r="AK20" s="146"/>
-      <c r="AL20" s="147"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="132"/>
+      <c r="AF20" s="132"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="132"/>
+      <c r="AJ20" s="132"/>
+      <c r="AK20" s="132"/>
+      <c r="AL20" s="133"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC50E2-4CAF-5344-83F1-C2454A1B1862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4339B6-9B4F-0C49-821B-FD6BF6BDBED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3513,8 +3513,12 @@
       <c r="D12" s="29">
         <v>9</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="164"/>
+      <c r="E12" s="163">
+        <v>0</v>
+      </c>
+      <c r="F12" s="164">
+        <v>3</v>
+      </c>
       <c r="G12" s="35"/>
       <c r="H12" s="54"/>
       <c r="I12" s="169"/>
@@ -3529,16 +3533,24 @@
       <c r="P12" s="30">
         <v>11</v>
       </c>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="164"/>
+      <c r="Q12" s="163">
+        <v>3</v>
+      </c>
+      <c r="R12" s="164">
+        <v>0</v>
+      </c>
       <c r="S12" s="37">
         <v>1</v>
       </c>
       <c r="T12" s="25">
         <v>14</v>
       </c>
-      <c r="U12" s="163"/>
-      <c r="V12" s="164"/>
+      <c r="U12" s="163">
+        <v>0</v>
+      </c>
+      <c r="V12" s="164">
+        <v>3</v>
+      </c>
       <c r="W12" s="35"/>
       <c r="X12" s="54"/>
       <c r="Y12" s="169"/>
@@ -3549,8 +3561,12 @@
       <c r="AB12" s="16">
         <v>16</v>
       </c>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="164"/>
+      <c r="AC12" s="163">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="164">
+        <v>0</v>
+      </c>
       <c r="AE12" s="19">
         <v>5</v>
       </c>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4339B6-9B4F-0C49-821B-FD6BF6BDBED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8EEF7D-AF84-A749-A4EB-9A4095A38F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3573,8 +3573,12 @@
       <c r="AF12" s="18">
         <v>13</v>
       </c>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="164"/>
+      <c r="AG12" s="163">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="164">
+        <v>3</v>
+      </c>
       <c r="AI12" s="26">
         <v>6</v>
       </c>
@@ -3666,32 +3670,48 @@
       <c r="T13" s="78">
         <v>15</v>
       </c>
-      <c r="U13" s="170"/>
-      <c r="V13" s="171"/>
+      <c r="U13" s="170">
+        <v>3</v>
+      </c>
+      <c r="V13" s="171">
+        <v>0</v>
+      </c>
       <c r="W13" s="107">
         <v>4</v>
       </c>
       <c r="X13" s="79">
         <v>13</v>
       </c>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="171"/>
+      <c r="Y13" s="170">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="171">
+        <v>3</v>
+      </c>
       <c r="AA13" s="80">
         <v>5</v>
       </c>
       <c r="AB13" s="81">
         <v>10</v>
       </c>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="174"/>
+      <c r="AC13" s="173">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="174">
+        <v>0</v>
+      </c>
       <c r="AE13" s="82">
         <v>6</v>
       </c>
       <c r="AF13" s="83">
         <v>12</v>
       </c>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="171"/>
+      <c r="AG13" s="170">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="171">
+        <v>0</v>
+      </c>
       <c r="AI13" s="84">
         <v>3</v>
       </c>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8EEF7D-AF84-A749-A4EB-9A4095A38F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5D7B0-FBD8-954B-A8D8-86C516B86D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3654,8 +3654,12 @@
       <c r="H13" s="76">
         <v>11</v>
       </c>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
+      <c r="I13" s="170">
+        <v>0</v>
+      </c>
+      <c r="J13" s="171">
+        <v>3</v>
+      </c>
       <c r="K13" s="35"/>
       <c r="L13" s="54"/>
       <c r="M13" s="169"/>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5D7B0-FBD8-954B-A8D8-86C516B86D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05646E79-B90C-6249-9757-AF282FA21D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3882,24 +3882,36 @@
       <c r="D15" s="90">
         <v>16</v>
       </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="166"/>
+      <c r="E15" s="165">
+        <v>3</v>
+      </c>
+      <c r="F15" s="166">
+        <v>0</v>
+      </c>
       <c r="G15" s="91">
         <v>2</v>
       </c>
       <c r="H15" s="92">
         <v>13</v>
       </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="I15" s="165">
+        <v>3</v>
+      </c>
+      <c r="J15" s="166">
+        <v>0</v>
+      </c>
       <c r="K15" s="93">
         <v>5</v>
       </c>
       <c r="L15" s="68">
         <v>7</v>
       </c>
-      <c r="M15" s="165"/>
-      <c r="N15" s="166"/>
+      <c r="M15" s="165">
+        <v>0</v>
+      </c>
+      <c r="N15" s="166">
+        <v>3</v>
+      </c>
       <c r="O15" s="35"/>
       <c r="P15" s="54"/>
       <c r="Q15" s="169"/>
@@ -3910,16 +3922,24 @@
       <c r="T15" s="94">
         <v>12</v>
       </c>
-      <c r="U15" s="165"/>
-      <c r="V15" s="166"/>
+      <c r="U15" s="165">
+        <v>3</v>
+      </c>
+      <c r="V15" s="166">
+        <v>0</v>
+      </c>
       <c r="W15" s="73">
         <v>1</v>
       </c>
       <c r="X15" s="62">
         <v>10</v>
       </c>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="166"/>
+      <c r="Y15" s="165">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="166">
+        <v>3</v>
+      </c>
       <c r="AA15" s="103"/>
       <c r="AB15" s="54"/>
       <c r="AC15" s="169"/>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05646E79-B90C-6249-9757-AF282FA21D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867F720-AE5B-1948-B0A8-1E817C2625C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3950,8 +3950,12 @@
       <c r="AF15" s="64">
         <v>14</v>
       </c>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="166"/>
+      <c r="AG15" s="165">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="166">
+        <v>3</v>
+      </c>
       <c r="AI15" s="71">
         <v>8</v>
       </c>
@@ -4059,16 +4063,24 @@
       <c r="AB16" s="27">
         <v>15</v>
       </c>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="164"/>
+      <c r="AC16" s="163">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="164">
+        <v>3</v>
+      </c>
       <c r="AE16" s="37">
         <v>1</v>
       </c>
       <c r="AF16" s="16">
         <v>16</v>
       </c>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="164"/>
+      <c r="AG16" s="163">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="164">
+        <v>3</v>
+      </c>
       <c r="AI16" s="106">
         <v>7</v>
       </c>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867F720-AE5B-1948-B0A8-1E817C2625C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909D1AB-EFD4-AC47-9AE6-5F57033AA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4027,8 +4027,12 @@
       <c r="D16" s="18">
         <v>13</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="164"/>
+      <c r="E16" s="163">
+        <v>0</v>
+      </c>
+      <c r="F16" s="164">
+        <v>3</v>
+      </c>
       <c r="G16" s="35"/>
       <c r="H16" s="54"/>
       <c r="I16" s="169"/>
@@ -4039,16 +4043,24 @@
       <c r="L16" s="25">
         <v>14</v>
       </c>
-      <c r="M16" s="163"/>
-      <c r="N16" s="164"/>
+      <c r="M16" s="163">
+        <v>3</v>
+      </c>
+      <c r="N16" s="164">
+        <v>0</v>
+      </c>
       <c r="O16" s="17">
         <v>2</v>
       </c>
       <c r="P16" s="29">
         <v>9</v>
       </c>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
+      <c r="Q16" s="163">
+        <v>3</v>
+      </c>
+      <c r="R16" s="164">
+        <v>0</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="54"/>
       <c r="U16" s="169"/>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909D1AB-EFD4-AC47-9AE6-5F57033AA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A88A080-5B99-0643-84A7-CE3AA21CF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4208,8 +4208,12 @@
       <c r="AB17" s="41">
         <v>8</v>
       </c>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="164"/>
+      <c r="AC17" s="163">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="164">
+        <v>3</v>
+      </c>
       <c r="AE17" s="35"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="179"/>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A88A080-5B99-0643-84A7-CE3AA21CF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798805D5-1373-1947-B83C-6B30315AEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4164,8 +4164,12 @@
       <c r="D17" s="57">
         <v>10</v>
       </c>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
+      <c r="E17" s="175">
+        <v>3</v>
+      </c>
+      <c r="F17" s="176">
+        <v>0</v>
+      </c>
       <c r="G17" s="19">
         <v>5</v>
       </c>
@@ -4180,8 +4184,12 @@
       <c r="L17" s="21">
         <v>12</v>
       </c>
-      <c r="M17" s="163"/>
-      <c r="N17" s="164"/>
+      <c r="M17" s="163">
+        <v>3</v>
+      </c>
+      <c r="N17" s="164">
+        <v>0</v>
+      </c>
       <c r="O17" s="33">
         <v>7</v>
       </c>
@@ -4200,8 +4208,12 @@
       <c r="X17" s="25">
         <v>14</v>
       </c>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="164"/>
+      <c r="Y17" s="163">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="164">
+        <v>0</v>
+      </c>
       <c r="AA17" s="17">
         <v>2</v>
       </c>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798805D5-1373-1947-B83C-6B30315AEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FE51F-C6D2-EF47-98A2-60983BBBC465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4176,8 +4176,12 @@
       <c r="H17" s="31">
         <v>6</v>
       </c>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
+      <c r="I17" s="163">
+        <v>3</v>
+      </c>
+      <c r="J17" s="164">
+        <v>0</v>
+      </c>
       <c r="K17" s="32">
         <v>11</v>
       </c>
@@ -4196,8 +4200,12 @@
       <c r="P17" s="27">
         <v>15</v>
       </c>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
+      <c r="Q17" s="163">
+        <v>3</v>
+      </c>
+      <c r="R17" s="164">
+        <v>0</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="54"/>
       <c r="U17" s="169"/>
@@ -4301,48 +4309,72 @@
       <c r="D18" s="58">
         <v>15</v>
       </c>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
+      <c r="E18" s="175">
+        <v>0</v>
+      </c>
+      <c r="F18" s="176">
+        <v>3</v>
+      </c>
       <c r="G18" s="15">
         <v>3</v>
       </c>
       <c r="H18" s="25">
         <v>14</v>
       </c>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
+      <c r="I18" s="163">
+        <v>3</v>
+      </c>
+      <c r="J18" s="164">
+        <v>0</v>
+      </c>
       <c r="K18" s="24">
         <v>4</v>
       </c>
       <c r="L18" s="29">
         <v>9</v>
       </c>
-      <c r="M18" s="163"/>
-      <c r="N18" s="164"/>
+      <c r="M18" s="163">
+        <v>3</v>
+      </c>
+      <c r="N18" s="164">
+        <v>0</v>
+      </c>
       <c r="O18" s="34">
         <v>5</v>
       </c>
       <c r="P18" s="23">
         <v>10</v>
       </c>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
+      <c r="Q18" s="163">
+        <v>3</v>
+      </c>
+      <c r="R18" s="164">
+        <v>0</v>
+      </c>
       <c r="S18" s="26">
         <v>6</v>
       </c>
       <c r="T18" s="30">
         <v>11</v>
       </c>
-      <c r="U18" s="163"/>
-      <c r="V18" s="164"/>
+      <c r="U18" s="163">
+        <v>0</v>
+      </c>
+      <c r="V18" s="164">
+        <v>3</v>
+      </c>
       <c r="W18" s="17">
         <v>2</v>
       </c>
       <c r="X18" s="21">
         <v>12</v>
       </c>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="164"/>
+      <c r="Y18" s="163">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="164">
+        <v>0</v>
+      </c>
       <c r="AA18" s="35"/>
       <c r="AB18" s="54"/>
       <c r="AC18" s="169"/>

--- a/src/assets/Spielplan 25 - Points.xlsx
+++ b/src/assets/Spielplan 25 - Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Data/spieltag/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FE51F-C6D2-EF47-98A2-60983BBBC465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19394F53-941F-4A46-AE86-7B8E0FAB9D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:CJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4450,56 +4450,84 @@
       <c r="D19" s="97">
         <v>11</v>
       </c>
-      <c r="E19" s="177"/>
-      <c r="F19" s="178"/>
+      <c r="E19" s="177">
+        <v>0</v>
+      </c>
+      <c r="F19" s="178">
+        <v>3</v>
+      </c>
       <c r="G19" s="86">
         <v>8</v>
       </c>
       <c r="H19" s="83">
         <v>12</v>
       </c>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+      <c r="I19" s="170">
+        <v>3</v>
+      </c>
+      <c r="J19" s="171">
+        <v>0</v>
+      </c>
       <c r="K19" s="77">
         <v>2</v>
       </c>
       <c r="L19" s="87">
         <v>16</v>
       </c>
-      <c r="M19" s="170"/>
-      <c r="N19" s="171"/>
+      <c r="M19" s="170">
+        <v>1</v>
+      </c>
+      <c r="N19" s="171">
+        <v>1</v>
+      </c>
       <c r="O19" s="98">
         <v>1</v>
       </c>
       <c r="P19" s="99">
         <v>3</v>
       </c>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="171"/>
+      <c r="Q19" s="170">
+        <v>0</v>
+      </c>
+      <c r="R19" s="171">
+        <v>3</v>
+      </c>
       <c r="S19" s="100">
         <v>4</v>
       </c>
       <c r="T19" s="101">
         <v>10</v>
       </c>
-      <c r="U19" s="170"/>
-      <c r="V19" s="171"/>
+      <c r="U19" s="170">
+        <v>3</v>
+      </c>
+      <c r="V19" s="171">
+        <v>0</v>
+      </c>
       <c r="W19" s="80">
         <v>5</v>
       </c>
       <c r="X19" s="78">
         <v>15</v>
       </c>
-      <c r="Y19" s="170"/>
-      <c r="Z19" s="171"/>
+      <c r="Y19" s="170">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="171">
+        <v>0</v>
+      </c>
       <c r="AA19" s="102">
         <v>9</v>
       </c>
       <c r="AB19" s="88">
         <v>14</v>
       </c>
-      <c r="AC19" s="170"/>
-      <c r="AD19" s="171"/>
+      <c r="AC19" s="170">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="171">
+        <v>3</v>
+      </c>
       <c r="AE19" s="35"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="179"/>
